--- a/nbs/files/lut/dbo_bodypar.xlsx
+++ b/nbs/files/lut/dbo_bodypar.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0245CB0B-DA20-4A92-8A81-26B1F85B83F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franckalbinet/pro/IAEA/MARIS/marisco/nbs/files/lut/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BDBE31-667D-0E46-9106-5325959F6015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="23900" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dbo_bodypar" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="dbo_bodypar">dbo_bodypar!$A$1:$D$62</definedName>
+    <definedName name="dbo_bodypar">dbo_bodypar!$A$1:$D$63</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="129">
   <si>
     <t>bodypar_id</t>
   </si>
@@ -413,17 +418,20 @@
   </si>
   <si>
     <t>FLES</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="MS Sans Serif"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -788,21 +796,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -816,857 +824,865 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>34</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>36</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>38</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>40</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>42</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>46</v>
       </c>
-      <c r="D22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>48</v>
       </c>
-      <c r="D23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>50</v>
       </c>
-      <c r="D24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>51</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>52</v>
       </c>
-      <c r="D25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>53</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>54</v>
       </c>
-      <c r="D26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>55</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>56</v>
       </c>
-      <c r="D27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>57</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>58</v>
       </c>
-      <c r="D28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>59</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>60</v>
       </c>
-      <c r="D29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
+      <c r="D30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>62</v>
       </c>
-      <c r="D30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>63</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>64</v>
       </c>
-      <c r="D31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>65</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>66</v>
       </c>
-      <c r="D32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>67</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>68</v>
       </c>
-      <c r="D33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>69</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>70</v>
       </c>
-      <c r="D34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>72</v>
       </c>
-      <c r="D35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>73</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>74</v>
       </c>
-      <c r="D36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>75</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>76</v>
       </c>
-      <c r="D37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>77</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>78</v>
       </c>
-      <c r="D38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>79</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>80</v>
       </c>
-      <c r="D39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
+      <c r="D40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>81</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>82</v>
       </c>
-      <c r="D40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>83</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>84</v>
       </c>
-      <c r="D41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42">
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>85</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>86</v>
-      </c>
-      <c r="D42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" t="s">
-        <v>89</v>
       </c>
       <c r="D43" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D46" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D48" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D49" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D50" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>104</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>105</v>
-      </c>
-      <c r="D51" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" t="s">
-        <v>107</v>
       </c>
       <c r="D52" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D53" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>110</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>111</v>
       </c>
-      <c r="D54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55">
+      <c r="D55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>112</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>113</v>
       </c>
-      <c r="D55" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56">
+      <c r="D56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>114</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>115</v>
-      </c>
-      <c r="D56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" t="s">
-        <v>117</v>
       </c>
       <c r="D57" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D58" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D59" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C60" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D60" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>124</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>125</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>126</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>127</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D63" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1676,12 +1692,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1817,19 +1830,45 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BCC9F0C-9BA0-4415-987D-821264158A9B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6A3FFAC-7C48-411D-A21C-12A117D83F22}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9901FAA2-EF28-4947-B266-1C6465EB4D42}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9901FAA2-EF28-4947-B266-1C6465EB4D42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f3c01d95-e195-4940-9fb4-afa395d98e0b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6A3FFAC-7C48-411D-A21C-12A117D83F22}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BCC9F0C-9BA0-4415-987D-821264158A9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>